--- a/vmes-file/fileUpload/excelTemplet/1_系统导入文件名.xlsx
+++ b/vmes-file/fileUpload/excelTemplet/1_系统导入文件名.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>BOM管理导入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,53 +45,65 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>产品物料导入</t>
+  </si>
+  <si>
+    <t>ProductExcelImport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户供应商导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备信息导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomerExcelImport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理导入</t>
+  </si>
+  <si>
+    <t>EquipmentExcelImport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserExcelImport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工管理导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmployeeExcelImport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DepartmentExcelImport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库货品导入(简版)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>WarehouseExcelImport</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产品物料导入</t>
-  </si>
-  <si>
-    <t>ProductExcelImport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户供应商导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备信息导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustomerExcelImport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户管理导入</t>
-  </si>
-  <si>
-    <t>EquipmentExcelImport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserExcelImport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工管理导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmployeeExcelImport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DepartmentExcelImport</t>
+    <t>WarehouseProductBySimpleExcelImport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库(简)-基础-仓库初始化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,19 +451,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.375" customWidth="1"/>
     <col min="2" max="2" width="41.25" customWidth="1"/>
+    <col min="3" max="3" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -467,7 +480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -475,60 +488,71 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/vmes-file/fileUpload/excelTemplet/1_系统导入文件名.xlsx
+++ b/vmes-file/fileUpload/excelTemplet/1_系统导入文件名.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>BOM管理导入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,19 +91,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>WarehouseExcelImport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WarehouseProductBySimpleExcelImport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库(简)-基础-仓库初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>仓库货品导入(简版)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WarehouseExcelImport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WarehouseProductBySimpleExcelImport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库(简)-基础-仓库初始化</t>
+    <t>员工管理导入(简版)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmployeeBySimpleExcelImport</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -490,13 +498,13 @@
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -504,7 +512,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -549,9 +557,17 @@
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
     </row>

--- a/vmes-file/fileUpload/excelTemplet/1_系统导入文件名.xlsx
+++ b/vmes-file/fileUpload/excelTemplet/1_系统导入文件名.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>BOM管理导入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,13 @@
   </si>
   <si>
     <t>EmployeeBySimpleExcelImport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaleCustomerProductPriceExcelImport</t>
+  </si>
+  <si>
+    <t>销售-客户货品价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -569,6 +576,14 @@
       </c>
       <c r="B12" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/vmes-file/fileUpload/excelTemplet/1_系统导入文件名.xlsx
+++ b/vmes-file/fileUpload/excelTemplet/1_系统导入文件名.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>BOM管理导入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,7 +118,18 @@
     <t>SaleCustomerProductPriceExcelImport</t>
   </si>
   <si>
+    <t>ProductUnitPriceExcelImport</t>
+  </si>
+  <si>
     <t>销售-客户货品价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售-价格管理-销售货品维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货品价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -580,10 +591,21 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/vmes-file/fileUpload/excelTemplet/1_系统导入文件名.xlsx
+++ b/vmes-file/fileUpload/excelTemplet/1_系统导入文件名.xlsx
@@ -480,7 +480,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/vmes-file/fileUpload/excelTemplet/1_系统导入文件名.xlsx
+++ b/vmes-file/fileUpload/excelTemplet/1_系统导入文件名.xlsx
@@ -480,7 +480,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
